--- a/excel/dept_average_neighbor_degree.xlsx
+++ b/excel/dept_average_neighbor_degree.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,696 +1448,6 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Milan Bankovic</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Sana Stojanovic Djurdjevic</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Stefan Miskovic</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Danijela Simic</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Jelena Hadzi Puric</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Ivan Cukic</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Ognjen Kocic</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Mirjana Maljkovic</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Aleksandra Kocic</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Ana Spasic</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Biljana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Andjelka Zecevic</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Aleksandar Veljkovic</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Vladimir Kuzmanovic</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Marjana Solajic</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Anja Bukurov</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Nemanja Micovic</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Nikola Milev</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Marinela Parovic</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Milica Selakovic</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Nikola Simic</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>MATF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Milana Prodanov</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Stefan Tubic</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Filip Hadzic</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Vladimir Jocovic</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Danko Miladinovic</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Dragana Milovancevic</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Jelica Cincovic</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Jovan Djukic</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Kristijan Ziza</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Marko Micovic</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Tamara Sekularac</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Uros Radenkovic</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Aleksandar Lazic</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Dragisa Miladinovic</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Marina Jovanovic Milenkovic</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Marija Bogicevic Sretenovic</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Elena Milovanovic</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Dejan Stojimirovic</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Milos Zlatkovic</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Jelena Ljubenovic</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Mina Marjanovic</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Bojan Marceta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Andela Pejanovic</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Sofija Prokic</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Tatjana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
